--- a/Data_Set/Mississippi.xlsx
+++ b/Data_Set/Mississippi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MANB1123_Business Stat for DS\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B7D1-8533-435A-8814-C590517C7129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="450" windowWidth="10860" windowHeight="5640" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Interest Rates (x)</t>
-  </si>
-  <si>
-    <t>Unemployment %(y)</t>
-  </si>
-  <si>
     <t>Percentage Unemployed</t>
   </si>
   <si>
@@ -39,12 +39,18 @@
   </si>
   <si>
     <t>Percentage of people unemployed</t>
+  </si>
+  <si>
+    <t>Interest Rates</t>
+  </si>
+  <si>
+    <t>Unemployment %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -88,6 +94,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +178,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +230,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,28 +422,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.1</v>
       </c>
@@ -408,7 +451,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.8000000000000007</v>
       </c>
@@ -416,7 +459,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.1999999999999993</v>
       </c>
@@ -424,7 +467,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8.4</v>
       </c>
@@ -432,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.9</v>
       </c>
@@ -440,7 +483,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.3000000000000007</v>
       </c>
@@ -448,7 +491,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10.199999999999999</v>
       </c>
@@ -456,7 +499,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -464,7 +507,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.4</v>
       </c>
@@ -472,7 +515,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.5</v>
       </c>
@@ -480,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10.199999999999999</v>
       </c>
@@ -488,7 +531,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10.1</v>
       </c>
@@ -496,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.8000000000000007</v>
       </c>
@@ -504,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.3000000000000007</v>
       </c>
@@ -512,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10.1</v>
       </c>
@@ -520,7 +563,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10.7</v>
       </c>
@@ -528,7 +571,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11.4</v>
       </c>
@@ -536,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.8</v>
       </c>
@@ -552,39 +595,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Set/Mississippi.xlsx
+++ b/Data_Set/Mississippi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MANB1123_Business Stat for DS\Data Set\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B7D1-8533-435A-8814-C590517C7129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DEDA5E-EFA4-4E43-85B6-3B42C77155E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Percentage Unemployed</t>
   </si>
@@ -45,6 +45,32 @@
   </si>
   <si>
     <t>Unemployment %</t>
+  </si>
+  <si>
+    <t>Income_Cat</t>
+  </si>
+  <si>
+    <t>Column C:</t>
+  </si>
+  <si>
+    <t>Income Category:
+1. Under $25
+2. $25 - $49
+3. $50 - $74
+4. $75+</t>
+  </si>
+  <si>
+    <t>Column D:</t>
+  </si>
+  <si>
+    <t>Level of Education:
+1. Did not comple High School
+2. High School Degree
+3. Undergraduate Degree
+4. Postgraduate Degree</t>
+  </si>
+  <si>
+    <t>Lev_Edu</t>
   </si>
 </sst>
 </file>
@@ -82,9 +108,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,168 +464,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>8.1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>8.4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>7.9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8.4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8.5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>10.1</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>10.1</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>10.7</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>11.4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>7.8</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -596,25 +753,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,7 +790,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
